--- a/tools and inventory.xlsx
+++ b/tools and inventory.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e339f38526139f95/Bachelorarbeit/latex-repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{4ECBCE65-7F9B-D64C-8EF8-F05164D6442E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{996E30F2-436B-AB44-8C14-BF6F05DFEF86}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{4ECBCE65-7F9B-D64C-8EF8-F05164D6442E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BBF89AD-782D-9644-B567-67163E3845D7}"/>
   <bookViews>
-    <workbookView xWindow="18920" yWindow="1420" windowWidth="15920" windowHeight="17440" activeTab="1" xr2:uid="{E0D168F2-178D-5242-BC3F-A98FEBE947DF}"/>
+    <workbookView xWindow="13580" yWindow="10000" windowWidth="23880" windowHeight="17440" activeTab="1" xr2:uid="{E0D168F2-178D-5242-BC3F-A98FEBE947DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -711,7 +712,7 @@
   <cols>
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
